--- a/SparkApplication/EnrichedLog Format.xlsx
+++ b/SparkApplication/EnrichedLog Format.xlsx
@@ -183,9 +183,6 @@
     <t xml:space="preserve">  DisplayedOidValue</t>
   </si>
   <si>
-    <t>Timestamp_ingestion</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -303,7 +300,10 @@
     <t>The Db value of the entity displyaed in the viewcomponent by the User navigation</t>
   </si>
   <si>
-    <t>timestamp when the logs are parsed and inserted in the table. Needed to manage properly the analysis step</t>
+    <t>TimestampIngestion</t>
+  </si>
+  <si>
+    <t>timestamp(in millisec) when the logs are parsed and inserted in the table. Needed to manage properly the analysis step</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,10 +1237,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,10 +1251,10 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1279,10 +1279,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1293,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1307,10 +1307,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,10 +1321,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,10 +1335,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1349,10 +1349,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1363,10 +1363,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,10 +1377,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
         <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1391,10 +1391,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,10 +1405,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1419,10 +1419,10 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,10 +1433,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,10 +1447,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,10 +1461,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1475,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1489,10 +1489,10 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,10 +1503,10 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,10 +1517,10 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1531,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,10 +1545,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
         <v>86</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1559,10 +1559,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1573,10 +1573,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1587,10 +1587,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1601,10 +1601,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1615,10 +1615,10 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,10 +1629,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,10 +1643,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,18 +1657,18 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>94</v>
